--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -17130,14 +17130,18 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="3" t="n"/>
       <c r="I10" s="3" t="n"/>
-      <c r="J10" s="3" t="n"/>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
@@ -17161,14 +17165,18 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="3" t="n"/>
       <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
@@ -17192,14 +17200,18 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="3" t="n"/>
       <c r="I12" s="3" t="n"/>
-      <c r="J12" s="3" t="n"/>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
@@ -17223,14 +17235,18 @@
         <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="3" t="n"/>
       <c r="I13" s="3" t="n"/>
-      <c r="J13" s="3" t="n"/>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K13" s="3" t="inlineStr"/>
     </row>
     <row r="14"/>
@@ -17329,14 +17345,18 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="3" t="n"/>
       <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
@@ -17360,14 +17380,18 @@
         <v>0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="3" t="n"/>
       <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
@@ -17391,14 +17415,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="3" t="n"/>
       <c r="I19" s="3" t="n"/>
-      <c r="J19" s="3" t="n"/>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
@@ -17422,14 +17450,18 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="3" t="n"/>
       <c r="I20" s="3" t="n"/>
-      <c r="J20" s="3" t="n"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K20" s="3" t="inlineStr"/>
     </row>
     <row r="21"/>
@@ -17528,14 +17560,18 @@
         <v>0</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="3" t="n"/>
       <c r="I24" s="3" t="n"/>
-      <c r="J24" s="3" t="n"/>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
@@ -17559,14 +17595,18 @@
         <v>0</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="3" t="n"/>
       <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="n"/>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
@@ -17590,14 +17630,18 @@
         <v>0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="3" t="n"/>
       <c r="I26" s="3" t="n"/>
-      <c r="J26" s="3" t="n"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
@@ -17621,14 +17665,18 @@
         <v>0</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="3" t="n"/>
       <c r="I27" s="3" t="n"/>
-      <c r="J27" s="3" t="n"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K27" s="3" t="inlineStr"/>
     </row>
     <row r="28"/>
@@ -17727,14 +17775,18 @@
         <v>0</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="3" t="n"/>
       <c r="I31" s="3" t="n"/>
-      <c r="J31" s="3" t="n"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
@@ -17758,14 +17810,18 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="3" t="n"/>
       <c r="I32" s="3" t="n"/>
-      <c r="J32" s="3" t="n"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
@@ -17789,14 +17845,18 @@
         <v>0</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="3" t="n"/>
       <c r="I33" s="3" t="n"/>
-      <c r="J33" s="3" t="n"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
@@ -17820,14 +17880,18 @@
         <v>0</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="3" t="n"/>
       <c r="I34" s="3" t="n"/>
-      <c r="J34" s="3" t="n"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K34" s="3" t="inlineStr"/>
     </row>
     <row r="35"/>
@@ -17926,14 +17990,18 @@
         <v>0</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="3" t="n"/>
       <c r="I38" s="3" t="n"/>
-      <c r="J38" s="3" t="n"/>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
@@ -17957,14 +18025,18 @@
         <v>0</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
-      <c r="J39" s="3" t="n"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
@@ -17988,14 +18060,18 @@
         <v>0</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="3" t="n"/>
       <c r="I40" s="3" t="n"/>
-      <c r="J40" s="3" t="n"/>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
@@ -18019,14 +18095,18 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="3" t="n"/>
       <c r="I41" s="3" t="n"/>
-      <c r="J41" s="3" t="n"/>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K41" s="3" t="inlineStr"/>
     </row>
     <row r="42"/>
@@ -18523,14 +18603,18 @@
         <v>0</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G59" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H59" s="3" t="n"/>
       <c r="I59" s="3" t="n"/>
-      <c r="J59" s="3" t="n"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
@@ -18554,14 +18638,18 @@
         <v>0</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G60" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H60" s="3" t="n"/>
       <c r="I60" s="3" t="n"/>
-      <c r="J60" s="3" t="n"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K60" s="3" t="inlineStr"/>
     </row>
     <row r="61">
@@ -18585,14 +18673,18 @@
         <v>0</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G61" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H61" s="3" t="n"/>
       <c r="I61" s="3" t="n"/>
-      <c r="J61" s="3" t="n"/>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K61" s="3" t="inlineStr"/>
     </row>
     <row r="62">
@@ -18616,14 +18708,18 @@
         <v>0</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G62" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H62" s="3" t="n"/>
       <c r="I62" s="3" t="n"/>
-      <c r="J62" s="3" t="n"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K62" s="3" t="inlineStr"/>
     </row>
     <row r="63"/>
@@ -18722,14 +18818,18 @@
         <v>0</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H66" s="3" t="n"/>
       <c r="I66" s="3" t="n"/>
-      <c r="J66" s="3" t="n"/>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K66" s="3" t="inlineStr"/>
     </row>
     <row r="67">
@@ -18753,14 +18853,18 @@
         <v>0</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H67" s="3" t="n"/>
       <c r="I67" s="3" t="n"/>
-      <c r="J67" s="3" t="n"/>
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K67" s="3" t="inlineStr"/>
     </row>
     <row r="68">
@@ -18784,14 +18888,18 @@
         <v>0</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G68" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H68" s="3" t="n"/>
       <c r="I68" s="3" t="n"/>
-      <c r="J68" s="3" t="n"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K68" s="3" t="inlineStr"/>
     </row>
     <row r="69">
@@ -18815,14 +18923,18 @@
         <v>0</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G69" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H69" s="3" t="n"/>
       <c r="I69" s="3" t="n"/>
-      <c r="J69" s="3" t="n"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K69" s="3" t="inlineStr"/>
     </row>
     <row r="70"/>
@@ -18921,14 +19033,18 @@
         <v>0</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G73" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H73" s="3" t="n"/>
       <c r="I73" s="3" t="n"/>
-      <c r="J73" s="3" t="n"/>
+      <c r="J73" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K73" s="3" t="inlineStr"/>
     </row>
     <row r="74">
@@ -18952,14 +19068,18 @@
         <v>0</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G74" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H74" s="3" t="n"/>
       <c r="I74" s="3" t="n"/>
-      <c r="J74" s="3" t="n"/>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K74" s="3" t="inlineStr"/>
     </row>
     <row r="75">
@@ -18983,14 +19103,18 @@
         <v>0</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H75" s="3" t="n"/>
       <c r="I75" s="3" t="n"/>
-      <c r="J75" s="3" t="n"/>
+      <c r="J75" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K75" s="3" t="inlineStr"/>
     </row>
     <row r="76">
@@ -19014,14 +19138,18 @@
         <v>0</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H76" s="3" t="n"/>
       <c r="I76" s="3" t="n"/>
-      <c r="J76" s="3" t="n"/>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K76" s="3" t="inlineStr"/>
     </row>
     <row r="77"/>
@@ -19120,14 +19248,18 @@
         <v>0</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G80" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H80" s="3" t="n"/>
       <c r="I80" s="3" t="n"/>
-      <c r="J80" s="3" t="n"/>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K80" s="3" t="inlineStr"/>
     </row>
     <row r="81">
@@ -19151,14 +19283,18 @@
         <v>0</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G81" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H81" s="3" t="n"/>
       <c r="I81" s="3" t="n"/>
-      <c r="J81" s="3" t="n"/>
+      <c r="J81" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K81" s="3" t="inlineStr"/>
     </row>
     <row r="82">
@@ -19182,14 +19318,18 @@
         <v>0</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G82" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H82" s="3" t="n"/>
       <c r="I82" s="3" t="n"/>
-      <c r="J82" s="3" t="n"/>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K82" s="3" t="inlineStr"/>
     </row>
     <row r="83">
@@ -19213,14 +19353,18 @@
         <v>0</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G83" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H83" s="3" t="n"/>
       <c r="I83" s="3" t="n"/>
-      <c r="J83" s="3" t="n"/>
+      <c r="J83" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K83" s="3" t="inlineStr"/>
     </row>
     <row r="84"/>
@@ -20115,14 +20259,18 @@
         <v>0</v>
       </c>
       <c r="F115" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G115" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H115" s="3" t="n"/>
       <c r="I115" s="3" t="n"/>
-      <c r="J115" s="3" t="n"/>
+      <c r="J115" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K115" s="3" t="inlineStr"/>
     </row>
     <row r="116">
@@ -20146,14 +20294,18 @@
         <v>0</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G116" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H116" s="3" t="n"/>
       <c r="I116" s="3" t="n"/>
-      <c r="J116" s="3" t="n"/>
+      <c r="J116" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K116" s="3" t="inlineStr"/>
     </row>
     <row r="117">
@@ -20177,14 +20329,18 @@
         <v>0</v>
       </c>
       <c r="F117" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G117" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H117" s="3" t="n"/>
       <c r="I117" s="3" t="n"/>
-      <c r="J117" s="3" t="n"/>
+      <c r="J117" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K117" s="3" t="inlineStr"/>
     </row>
     <row r="118">
@@ -20208,14 +20364,18 @@
         <v>0</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G118" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H118" s="3" t="n"/>
       <c r="I118" s="3" t="n"/>
-      <c r="J118" s="3" t="n"/>
+      <c r="J118" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K118" s="3" t="inlineStr"/>
     </row>
     <row r="119"/>
@@ -20314,14 +20474,18 @@
         <v>0</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G122" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H122" s="3" t="n"/>
       <c r="I122" s="3" t="n"/>
-      <c r="J122" s="3" t="n"/>
+      <c r="J122" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K122" s="3" t="inlineStr"/>
     </row>
     <row r="123">
@@ -20345,14 +20509,18 @@
         <v>0</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G123" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H123" s="3" t="n"/>
       <c r="I123" s="3" t="n"/>
-      <c r="J123" s="3" t="n"/>
+      <c r="J123" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K123" s="3" t="inlineStr"/>
     </row>
     <row r="124">
@@ -20376,14 +20544,18 @@
         <v>0</v>
       </c>
       <c r="F124" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G124" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H124" s="3" t="n"/>
       <c r="I124" s="3" t="n"/>
-      <c r="J124" s="3" t="n"/>
+      <c r="J124" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K124" s="3" t="inlineStr"/>
     </row>
     <row r="125">
@@ -20407,14 +20579,18 @@
         <v>0</v>
       </c>
       <c r="F125" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G125" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H125" s="3" t="n"/>
       <c r="I125" s="3" t="n"/>
-      <c r="J125" s="3" t="n"/>
+      <c r="J125" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K125" s="3" t="inlineStr"/>
     </row>
     <row r="126"/>
@@ -20513,14 +20689,18 @@
         <v>0</v>
       </c>
       <c r="F129" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G129" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H129" s="3" t="n"/>
       <c r="I129" s="3" t="n"/>
-      <c r="J129" s="3" t="n"/>
+      <c r="J129" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K129" s="3" t="inlineStr"/>
     </row>
     <row r="130">
@@ -20544,14 +20724,18 @@
         <v>0</v>
       </c>
       <c r="F130" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G130" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H130" s="3" t="n"/>
       <c r="I130" s="3" t="n"/>
-      <c r="J130" s="3" t="n"/>
+      <c r="J130" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K130" s="3" t="inlineStr"/>
     </row>
     <row r="131">
@@ -20575,14 +20759,18 @@
         <v>0</v>
       </c>
       <c r="F131" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G131" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H131" s="3" t="n"/>
       <c r="I131" s="3" t="n"/>
-      <c r="J131" s="3" t="n"/>
+      <c r="J131" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K131" s="3" t="inlineStr"/>
     </row>
     <row r="132">
@@ -20606,14 +20794,18 @@
         <v>0</v>
       </c>
       <c r="F132" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G132" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H132" s="3" t="n"/>
       <c r="I132" s="3" t="n"/>
-      <c r="J132" s="3" t="n"/>
+      <c r="J132" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K132" s="3" t="inlineStr"/>
     </row>
     <row r="133"/>
@@ -21707,14 +21899,18 @@
         <v>0</v>
       </c>
       <c r="F171" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G171" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H171" s="3" t="n"/>
       <c r="I171" s="3" t="n"/>
-      <c r="J171" s="3" t="n"/>
+      <c r="J171" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K171" s="3" t="inlineStr"/>
     </row>
     <row r="172">
@@ -21738,14 +21934,18 @@
         <v>0</v>
       </c>
       <c r="F172" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G172" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H172" s="3" t="n"/>
       <c r="I172" s="3" t="n"/>
-      <c r="J172" s="3" t="n"/>
+      <c r="J172" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K172" s="3" t="inlineStr"/>
     </row>
     <row r="173">
@@ -21769,14 +21969,18 @@
         <v>0</v>
       </c>
       <c r="F173" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G173" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H173" s="3" t="n"/>
       <c r="I173" s="3" t="n"/>
-      <c r="J173" s="3" t="n"/>
+      <c r="J173" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K173" s="3" t="inlineStr"/>
     </row>
     <row r="174">
@@ -21800,14 +22004,18 @@
         <v>0</v>
       </c>
       <c r="F174" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G174" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H174" s="3" t="n"/>
       <c r="I174" s="3" t="n"/>
-      <c r="J174" s="3" t="n"/>
+      <c r="J174" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K174" s="3" t="inlineStr"/>
     </row>
     <row r="175"/>
@@ -21906,14 +22114,18 @@
         <v>0</v>
       </c>
       <c r="F178" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G178" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H178" s="3" t="n"/>
       <c r="I178" s="3" t="n"/>
-      <c r="J178" s="3" t="n"/>
+      <c r="J178" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K178" s="3" t="inlineStr"/>
     </row>
     <row r="179">
@@ -21937,14 +22149,18 @@
         <v>0</v>
       </c>
       <c r="F179" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G179" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H179" s="3" t="n"/>
       <c r="I179" s="3" t="n"/>
-      <c r="J179" s="3" t="n"/>
+      <c r="J179" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K179" s="3" t="inlineStr"/>
     </row>
     <row r="180">
@@ -21968,14 +22184,18 @@
         <v>0</v>
       </c>
       <c r="F180" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G180" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H180" s="3" t="n"/>
       <c r="I180" s="3" t="n"/>
-      <c r="J180" s="3" t="n"/>
+      <c r="J180" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K180" s="3" t="inlineStr"/>
     </row>
     <row r="181">
@@ -21999,14 +22219,18 @@
         <v>0</v>
       </c>
       <c r="F181" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G181" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H181" s="3" t="n"/>
       <c r="I181" s="3" t="n"/>
-      <c r="J181" s="3" t="n"/>
+      <c r="J181" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K181" s="3" t="inlineStr"/>
     </row>
     <row r="182"/>
@@ -22105,14 +22329,18 @@
         <v>0</v>
       </c>
       <c r="F185" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G185" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H185" s="3" t="n"/>
       <c r="I185" s="3" t="n"/>
-      <c r="J185" s="3" t="n"/>
+      <c r="J185" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K185" s="3" t="inlineStr"/>
     </row>
     <row r="186">
@@ -22136,14 +22364,18 @@
         <v>0</v>
       </c>
       <c r="F186" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G186" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H186" s="3" t="n"/>
       <c r="I186" s="3" t="n"/>
-      <c r="J186" s="3" t="n"/>
+      <c r="J186" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K186" s="3" t="inlineStr"/>
     </row>
     <row r="187">
@@ -22167,14 +22399,18 @@
         <v>0</v>
       </c>
       <c r="F187" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G187" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H187" s="3" t="n"/>
       <c r="I187" s="3" t="n"/>
-      <c r="J187" s="3" t="n"/>
+      <c r="J187" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K187" s="3" t="inlineStr"/>
     </row>
     <row r="188">
@@ -22198,14 +22434,18 @@
         <v>0</v>
       </c>
       <c r="F188" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G188" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H188" s="3" t="n"/>
       <c r="I188" s="3" t="n"/>
-      <c r="J188" s="3" t="n"/>
+      <c r="J188" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K188" s="3" t="inlineStr"/>
     </row>
     <row r="189"/>
@@ -23299,14 +23539,18 @@
         <v>0</v>
       </c>
       <c r="F227" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G227" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="3" t="n"/>
       <c r="I227" s="3" t="n"/>
-      <c r="J227" s="3" t="n"/>
+      <c r="J227" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K227" s="3" t="inlineStr"/>
     </row>
     <row r="228">
@@ -23330,14 +23574,18 @@
         <v>0</v>
       </c>
       <c r="F228" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G228" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H228" s="3" t="n"/>
       <c r="I228" s="3" t="n"/>
-      <c r="J228" s="3" t="n"/>
+      <c r="J228" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K228" s="3" t="inlineStr"/>
     </row>
     <row r="229">
@@ -23361,14 +23609,18 @@
         <v>0</v>
       </c>
       <c r="F229" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G229" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="3" t="n"/>
       <c r="I229" s="3" t="n"/>
-      <c r="J229" s="3" t="n"/>
+      <c r="J229" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
@@ -23392,14 +23644,18 @@
         <v>0</v>
       </c>
       <c r="F230" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G230" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H230" s="3" t="n"/>
       <c r="I230" s="3" t="n"/>
-      <c r="J230" s="3" t="n"/>
+      <c r="J230" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K230" s="3" t="inlineStr"/>
     </row>
     <row r="231"/>
@@ -23498,14 +23754,18 @@
         <v>0</v>
       </c>
       <c r="F234" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G234" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H234" s="3" t="n"/>
       <c r="I234" s="3" t="n"/>
-      <c r="J234" s="3" t="n"/>
+      <c r="J234" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K234" s="3" t="inlineStr"/>
     </row>
     <row r="235">
@@ -23529,14 +23789,18 @@
         <v>0</v>
       </c>
       <c r="F235" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G235" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H235" s="3" t="n"/>
       <c r="I235" s="3" t="n"/>
-      <c r="J235" s="3" t="n"/>
+      <c r="J235" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K235" s="3" t="inlineStr"/>
     </row>
     <row r="236">
@@ -23560,14 +23824,18 @@
         <v>0</v>
       </c>
       <c r="F236" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G236" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H236" s="3" t="n"/>
       <c r="I236" s="3" t="n"/>
-      <c r="J236" s="3" t="n"/>
+      <c r="J236" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K236" s="3" t="inlineStr"/>
     </row>
     <row r="237">
@@ -23591,14 +23859,18 @@
         <v>0</v>
       </c>
       <c r="F237" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G237" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H237" s="3" t="n"/>
       <c r="I237" s="3" t="n"/>
-      <c r="J237" s="3" t="n"/>
+      <c r="J237" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K237" s="3" t="inlineStr"/>
     </row>
     <row r="238"/>
@@ -23697,14 +23969,18 @@
         <v>0</v>
       </c>
       <c r="F241" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G241" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H241" s="3" t="n"/>
       <c r="I241" s="3" t="n"/>
-      <c r="J241" s="3" t="n"/>
+      <c r="J241" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K241" s="3" t="inlineStr"/>
     </row>
     <row r="242">
@@ -23728,14 +24004,18 @@
         <v>0</v>
       </c>
       <c r="F242" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G242" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H242" s="3" t="n"/>
       <c r="I242" s="3" t="n"/>
-      <c r="J242" s="3" t="n"/>
+      <c r="J242" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K242" s="3" t="inlineStr"/>
     </row>
     <row r="243">
@@ -23759,14 +24039,18 @@
         <v>0</v>
       </c>
       <c r="F243" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G243" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H243" s="3" t="n"/>
       <c r="I243" s="3" t="n"/>
-      <c r="J243" s="3" t="n"/>
+      <c r="J243" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K243" s="3" t="inlineStr"/>
     </row>
     <row r="244">
@@ -23790,14 +24074,18 @@
         <v>0</v>
       </c>
       <c r="F244" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G244" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H244" s="3" t="n"/>
       <c r="I244" s="3" t="n"/>
-      <c r="J244" s="3" t="n"/>
+      <c r="J244" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K244" s="3" t="inlineStr"/>
     </row>
     <row r="245"/>
@@ -24891,14 +25179,18 @@
         <v>0</v>
       </c>
       <c r="F283" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G283" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H283" s="3" t="n"/>
       <c r="I283" s="3" t="n"/>
-      <c r="J283" s="3" t="n"/>
+      <c r="J283" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K283" s="3" t="inlineStr"/>
     </row>
     <row r="284">
@@ -24922,14 +25214,18 @@
         <v>0</v>
       </c>
       <c r="F284" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G284" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H284" s="3" t="n"/>
       <c r="I284" s="3" t="n"/>
-      <c r="J284" s="3" t="n"/>
+      <c r="J284" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K284" s="3" t="inlineStr"/>
     </row>
     <row r="285">
@@ -24953,14 +25249,18 @@
         <v>0</v>
       </c>
       <c r="F285" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G285" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H285" s="3" t="n"/>
       <c r="I285" s="3" t="n"/>
-      <c r="J285" s="3" t="n"/>
+      <c r="J285" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K285" s="3" t="inlineStr"/>
     </row>
     <row r="286">
@@ -24984,14 +25284,18 @@
         <v>0</v>
       </c>
       <c r="F286" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G286" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H286" s="3" t="n"/>
       <c r="I286" s="3" t="n"/>
-      <c r="J286" s="3" t="n"/>
+      <c r="J286" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K286" s="3" t="inlineStr"/>
     </row>
     <row r="287"/>
@@ -25090,14 +25394,18 @@
         <v>0</v>
       </c>
       <c r="F290" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G290" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H290" s="3" t="n"/>
       <c r="I290" s="3" t="n"/>
-      <c r="J290" s="3" t="n"/>
+      <c r="J290" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K290" s="3" t="inlineStr"/>
     </row>
     <row r="291">
@@ -25121,14 +25429,18 @@
         <v>0</v>
       </c>
       <c r="F291" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G291" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H291" s="3" t="n"/>
       <c r="I291" s="3" t="n"/>
-      <c r="J291" s="3" t="n"/>
+      <c r="J291" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K291" s="3" t="inlineStr"/>
     </row>
     <row r="292">
@@ -25152,14 +25464,18 @@
         <v>0</v>
       </c>
       <c r="F292" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G292" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H292" s="3" t="n"/>
       <c r="I292" s="3" t="n"/>
-      <c r="J292" s="3" t="n"/>
+      <c r="J292" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K292" s="3" t="inlineStr"/>
     </row>
     <row r="293">
@@ -25183,14 +25499,18 @@
         <v>0</v>
       </c>
       <c r="F293" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G293" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H293" s="3" t="n"/>
       <c r="I293" s="3" t="n"/>
-      <c r="J293" s="3" t="n"/>
+      <c r="J293" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K293" s="3" t="inlineStr"/>
     </row>
     <row r="294"/>
@@ -25289,14 +25609,18 @@
         <v>0</v>
       </c>
       <c r="F297" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G297" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H297" s="3" t="n"/>
       <c r="I297" s="3" t="n"/>
-      <c r="J297" s="3" t="n"/>
+      <c r="J297" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K297" s="3" t="inlineStr"/>
     </row>
     <row r="298">
@@ -25320,14 +25644,18 @@
         <v>0</v>
       </c>
       <c r="F298" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G298" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H298" s="3" t="n"/>
       <c r="I298" s="3" t="n"/>
-      <c r="J298" s="3" t="n"/>
+      <c r="J298" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K298" s="3" t="inlineStr"/>
     </row>
     <row r="299">
@@ -25351,14 +25679,18 @@
         <v>0</v>
       </c>
       <c r="F299" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G299" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H299" s="3" t="n"/>
       <c r="I299" s="3" t="n"/>
-      <c r="J299" s="3" t="n"/>
+      <c r="J299" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K299" s="3" t="inlineStr"/>
     </row>
     <row r="300">
@@ -25382,14 +25714,18 @@
         <v>0</v>
       </c>
       <c r="F300" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G300" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H300" s="3" t="n"/>
       <c r="I300" s="3" t="n"/>
-      <c r="J300" s="3" t="n"/>
+      <c r="J300" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K300" s="3" t="inlineStr"/>
     </row>
     <row r="301"/>
@@ -26483,14 +26819,18 @@
         <v>0</v>
       </c>
       <c r="F339" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G339" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H339" s="3" t="n"/>
       <c r="I339" s="3" t="n"/>
-      <c r="J339" s="3" t="n"/>
+      <c r="J339" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K339" s="3" t="inlineStr"/>
     </row>
     <row r="340">
@@ -26514,14 +26854,18 @@
         <v>0</v>
       </c>
       <c r="F340" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G340" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H340" s="3" t="n"/>
       <c r="I340" s="3" t="n"/>
-      <c r="J340" s="3" t="n"/>
+      <c r="J340" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K340" s="3" t="inlineStr"/>
     </row>
     <row r="341">
@@ -26545,14 +26889,18 @@
         <v>0</v>
       </c>
       <c r="F341" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G341" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H341" s="3" t="n"/>
       <c r="I341" s="3" t="n"/>
-      <c r="J341" s="3" t="n"/>
+      <c r="J341" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K341" s="3" t="inlineStr"/>
     </row>
     <row r="342">
@@ -26576,14 +26924,18 @@
         <v>0</v>
       </c>
       <c r="F342" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G342" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H342" s="3" t="n"/>
       <c r="I342" s="3" t="n"/>
-      <c r="J342" s="3" t="n"/>
+      <c r="J342" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K342" s="3" t="inlineStr"/>
     </row>
     <row r="343"/>
@@ -26682,14 +27034,18 @@
         <v>0</v>
       </c>
       <c r="F346" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G346" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H346" s="3" t="n"/>
       <c r="I346" s="3" t="n"/>
-      <c r="J346" s="3" t="n"/>
+      <c r="J346" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K346" s="3" t="inlineStr"/>
     </row>
     <row r="347">
@@ -26713,14 +27069,18 @@
         <v>0</v>
       </c>
       <c r="F347" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G347" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H347" s="3" t="n"/>
       <c r="I347" s="3" t="n"/>
-      <c r="J347" s="3" t="n"/>
+      <c r="J347" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K347" s="3" t="inlineStr"/>
     </row>
     <row r="348">
@@ -26744,14 +27104,18 @@
         <v>0</v>
       </c>
       <c r="F348" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G348" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H348" s="3" t="n"/>
       <c r="I348" s="3" t="n"/>
-      <c r="J348" s="3" t="n"/>
+      <c r="J348" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K348" s="3" t="inlineStr"/>
     </row>
     <row r="349">
@@ -26775,14 +27139,18 @@
         <v>0</v>
       </c>
       <c r="F349" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G349" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H349" s="3" t="n"/>
       <c r="I349" s="3" t="n"/>
-      <c r="J349" s="3" t="n"/>
+      <c r="J349" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K349" s="3" t="inlineStr"/>
     </row>
     <row r="350"/>
@@ -26881,14 +27249,18 @@
         <v>0</v>
       </c>
       <c r="F353" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G353" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H353" s="3" t="n"/>
       <c r="I353" s="3" t="n"/>
-      <c r="J353" s="3" t="n"/>
+      <c r="J353" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K353" s="3" t="inlineStr"/>
     </row>
     <row r="354">
@@ -26912,14 +27284,18 @@
         <v>0</v>
       </c>
       <c r="F354" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G354" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H354" s="3" t="n"/>
       <c r="I354" s="3" t="n"/>
-      <c r="J354" s="3" t="n"/>
+      <c r="J354" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K354" s="3" t="inlineStr"/>
     </row>
     <row r="355">
@@ -26943,14 +27319,18 @@
         <v>0</v>
       </c>
       <c r="F355" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G355" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H355" s="3" t="n"/>
       <c r="I355" s="3" t="n"/>
-      <c r="J355" s="3" t="n"/>
+      <c r="J355" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K355" s="3" t="inlineStr"/>
     </row>
     <row r="356">
@@ -26974,14 +27354,18 @@
         <v>0</v>
       </c>
       <c r="F356" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G356" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H356" s="3" t="n"/>
       <c r="I356" s="3" t="n"/>
-      <c r="J356" s="3" t="n"/>
+      <c r="J356" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K356" s="3" t="inlineStr"/>
     </row>
     <row r="357"/>
@@ -28075,14 +28459,18 @@
         <v>0</v>
       </c>
       <c r="F395" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G395" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H395" s="3" t="n"/>
       <c r="I395" s="3" t="n"/>
-      <c r="J395" s="3" t="n"/>
+      <c r="J395" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K395" s="3" t="inlineStr"/>
     </row>
     <row r="396">
@@ -28106,14 +28494,18 @@
         <v>0</v>
       </c>
       <c r="F396" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G396" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H396" s="3" t="n"/>
       <c r="I396" s="3" t="n"/>
-      <c r="J396" s="3" t="n"/>
+      <c r="J396" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K396" s="3" t="inlineStr"/>
     </row>
     <row r="397">
@@ -28137,14 +28529,18 @@
         <v>0</v>
       </c>
       <c r="F397" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G397" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H397" s="3" t="n"/>
       <c r="I397" s="3" t="n"/>
-      <c r="J397" s="3" t="n"/>
+      <c r="J397" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K397" s="3" t="inlineStr"/>
     </row>
     <row r="398">
@@ -28168,14 +28564,18 @@
         <v>0</v>
       </c>
       <c r="F398" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G398" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H398" s="3" t="n"/>
       <c r="I398" s="3" t="n"/>
-      <c r="J398" s="3" t="n"/>
+      <c r="J398" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K398" s="3" t="inlineStr"/>
     </row>
     <row r="399"/>
@@ -28274,14 +28674,18 @@
         <v>0</v>
       </c>
       <c r="F402" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G402" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H402" s="3" t="n"/>
       <c r="I402" s="3" t="n"/>
-      <c r="J402" s="3" t="n"/>
+      <c r="J402" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K402" s="3" t="inlineStr"/>
     </row>
     <row r="403">
@@ -28305,14 +28709,18 @@
         <v>0</v>
       </c>
       <c r="F403" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G403" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H403" s="3" t="n"/>
       <c r="I403" s="3" t="n"/>
-      <c r="J403" s="3" t="n"/>
+      <c r="J403" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K403" s="3" t="inlineStr"/>
     </row>
     <row r="404">
@@ -28336,14 +28744,18 @@
         <v>0</v>
       </c>
       <c r="F404" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G404" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H404" s="3" t="n"/>
       <c r="I404" s="3" t="n"/>
-      <c r="J404" s="3" t="n"/>
+      <c r="J404" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K404" s="3" t="inlineStr"/>
     </row>
     <row r="405">
@@ -28367,14 +28779,18 @@
         <v>0</v>
       </c>
       <c r="F405" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G405" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H405" s="3" t="n"/>
       <c r="I405" s="3" t="n"/>
-      <c r="J405" s="3" t="n"/>
+      <c r="J405" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K405" s="3" t="inlineStr"/>
     </row>
     <row r="406"/>
@@ -28473,14 +28889,18 @@
         <v>0</v>
       </c>
       <c r="F409" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G409" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H409" s="3" t="n"/>
       <c r="I409" s="3" t="n"/>
-      <c r="J409" s="3" t="n"/>
+      <c r="J409" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K409" s="3" t="inlineStr"/>
     </row>
     <row r="410">
@@ -28504,14 +28924,18 @@
         <v>0</v>
       </c>
       <c r="F410" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G410" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H410" s="3" t="n"/>
       <c r="I410" s="3" t="n"/>
-      <c r="J410" s="3" t="n"/>
+      <c r="J410" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K410" s="3" t="inlineStr"/>
     </row>
     <row r="411">
@@ -28535,14 +28959,18 @@
         <v>0</v>
       </c>
       <c r="F411" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G411" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H411" s="3" t="n"/>
       <c r="I411" s="3" t="n"/>
-      <c r="J411" s="3" t="n"/>
+      <c r="J411" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K411" s="3" t="inlineStr"/>
     </row>
     <row r="412">
@@ -28566,14 +28994,18 @@
         <v>0</v>
       </c>
       <c r="F412" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G412" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H412" s="3" t="n"/>
       <c r="I412" s="3" t="n"/>
-      <c r="J412" s="3" t="n"/>
+      <c r="J412" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K412" s="3" t="inlineStr"/>
     </row>
     <row r="413"/>
@@ -29667,14 +30099,18 @@
         <v>0</v>
       </c>
       <c r="F451" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G451" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H451" s="3" t="n"/>
       <c r="I451" s="3" t="n"/>
-      <c r="J451" s="3" t="n"/>
+      <c r="J451" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K451" s="3" t="inlineStr"/>
     </row>
     <row r="452">
@@ -29698,14 +30134,18 @@
         <v>0</v>
       </c>
       <c r="F452" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G452" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H452" s="3" t="n"/>
       <c r="I452" s="3" t="n"/>
-      <c r="J452" s="3" t="n"/>
+      <c r="J452" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K452" s="3" t="inlineStr"/>
     </row>
     <row r="453">
@@ -29729,14 +30169,18 @@
         <v>0</v>
       </c>
       <c r="F453" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G453" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H453" s="3" t="n"/>
       <c r="I453" s="3" t="n"/>
-      <c r="J453" s="3" t="n"/>
+      <c r="J453" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K453" s="3" t="inlineStr"/>
     </row>
     <row r="454">
@@ -29760,14 +30204,18 @@
         <v>0</v>
       </c>
       <c r="F454" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G454" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H454" s="3" t="n"/>
       <c r="I454" s="3" t="n"/>
-      <c r="J454" s="3" t="n"/>
+      <c r="J454" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K454" s="3" t="inlineStr"/>
     </row>
     <row r="455"/>
@@ -29866,14 +30314,18 @@
         <v>0</v>
       </c>
       <c r="F458" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G458" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H458" s="3" t="n"/>
       <c r="I458" s="3" t="n"/>
-      <c r="J458" s="3" t="n"/>
+      <c r="J458" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K458" s="3" t="inlineStr"/>
     </row>
     <row r="459">
@@ -29897,14 +30349,18 @@
         <v>0</v>
       </c>
       <c r="F459" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G459" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H459" s="3" t="n"/>
       <c r="I459" s="3" t="n"/>
-      <c r="J459" s="3" t="n"/>
+      <c r="J459" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K459" s="3" t="inlineStr"/>
     </row>
     <row r="460">
@@ -29928,14 +30384,18 @@
         <v>0</v>
       </c>
       <c r="F460" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G460" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H460" s="3" t="n"/>
       <c r="I460" s="3" t="n"/>
-      <c r="J460" s="3" t="n"/>
+      <c r="J460" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K460" s="3" t="inlineStr"/>
     </row>
     <row r="461">
@@ -29959,14 +30419,18 @@
         <v>0</v>
       </c>
       <c r="F461" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G461" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H461" s="3" t="n"/>
       <c r="I461" s="3" t="n"/>
-      <c r="J461" s="3" t="n"/>
+      <c r="J461" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K461" s="3" t="inlineStr"/>
     </row>
     <row r="462"/>
@@ -30065,14 +30529,18 @@
         <v>0</v>
       </c>
       <c r="F465" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G465" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H465" s="3" t="n"/>
       <c r="I465" s="3" t="n"/>
-      <c r="J465" s="3" t="n"/>
+      <c r="J465" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K465" s="3" t="inlineStr"/>
     </row>
     <row r="466">
@@ -30096,14 +30564,18 @@
         <v>0</v>
       </c>
       <c r="F466" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G466" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H466" s="3" t="n"/>
       <c r="I466" s="3" t="n"/>
-      <c r="J466" s="3" t="n"/>
+      <c r="J466" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K466" s="3" t="inlineStr"/>
     </row>
     <row r="467">
@@ -30127,14 +30599,18 @@
         <v>0</v>
       </c>
       <c r="F467" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G467" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H467" s="3" t="n"/>
       <c r="I467" s="3" t="n"/>
-      <c r="J467" s="3" t="n"/>
+      <c r="J467" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K467" s="3" t="inlineStr"/>
     </row>
     <row r="468">
@@ -30158,14 +30634,18 @@
         <v>0</v>
       </c>
       <c r="F468" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G468" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H468" s="3" t="n"/>
       <c r="I468" s="3" t="n"/>
-      <c r="J468" s="3" t="n"/>
+      <c r="J468" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K468" s="3" t="inlineStr"/>
     </row>
     <row r="469"/>
@@ -31259,14 +31739,18 @@
         <v>0</v>
       </c>
       <c r="F507" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G507" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H507" s="3" t="n"/>
       <c r="I507" s="3" t="n"/>
-      <c r="J507" s="3" t="n"/>
+      <c r="J507" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K507" s="3" t="inlineStr"/>
     </row>
     <row r="508">
@@ -31290,14 +31774,18 @@
         <v>0</v>
       </c>
       <c r="F508" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G508" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H508" s="3" t="n"/>
       <c r="I508" s="3" t="n"/>
-      <c r="J508" s="3" t="n"/>
+      <c r="J508" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K508" s="3" t="inlineStr"/>
     </row>
     <row r="509">
@@ -31321,14 +31809,18 @@
         <v>0</v>
       </c>
       <c r="F509" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G509" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H509" s="3" t="n"/>
       <c r="I509" s="3" t="n"/>
-      <c r="J509" s="3" t="n"/>
+      <c r="J509" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K509" s="3" t="inlineStr"/>
     </row>
     <row r="510">
@@ -31352,14 +31844,18 @@
         <v>0</v>
       </c>
       <c r="F510" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G510" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H510" s="3" t="n"/>
       <c r="I510" s="3" t="n"/>
-      <c r="J510" s="3" t="n"/>
+      <c r="J510" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K510" s="3" t="inlineStr"/>
     </row>
     <row r="511"/>
@@ -31458,14 +31954,18 @@
         <v>0</v>
       </c>
       <c r="F514" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G514" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H514" s="3" t="n"/>
       <c r="I514" s="3" t="n"/>
-      <c r="J514" s="3" t="n"/>
+      <c r="J514" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K514" s="3" t="inlineStr"/>
     </row>
     <row r="515">
@@ -31489,14 +31989,18 @@
         <v>0</v>
       </c>
       <c r="F515" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G515" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H515" s="3" t="n"/>
       <c r="I515" s="3" t="n"/>
-      <c r="J515" s="3" t="n"/>
+      <c r="J515" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K515" s="3" t="inlineStr"/>
     </row>
     <row r="516">
@@ -31520,14 +32024,18 @@
         <v>0</v>
       </c>
       <c r="F516" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G516" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H516" s="3" t="n"/>
       <c r="I516" s="3" t="n"/>
-      <c r="J516" s="3" t="n"/>
+      <c r="J516" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K516" s="3" t="inlineStr"/>
     </row>
     <row r="517">
@@ -31551,14 +32059,18 @@
         <v>0</v>
       </c>
       <c r="F517" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G517" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H517" s="3" t="n"/>
       <c r="I517" s="3" t="n"/>
-      <c r="J517" s="3" t="n"/>
+      <c r="J517" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K517" s="3" t="inlineStr"/>
     </row>
     <row r="518"/>
@@ -31657,14 +32169,18 @@
         <v>0</v>
       </c>
       <c r="F521" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G521" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H521" s="3" t="n"/>
       <c r="I521" s="3" t="n"/>
-      <c r="J521" s="3" t="n"/>
+      <c r="J521" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K521" s="3" t="inlineStr"/>
     </row>
     <row r="522">
@@ -31688,14 +32204,18 @@
         <v>0</v>
       </c>
       <c r="F522" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G522" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H522" s="3" t="n"/>
       <c r="I522" s="3" t="n"/>
-      <c r="J522" s="3" t="n"/>
+      <c r="J522" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K522" s="3" t="inlineStr"/>
     </row>
     <row r="523">
@@ -31719,14 +32239,18 @@
         <v>0</v>
       </c>
       <c r="F523" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G523" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H523" s="3" t="n"/>
       <c r="I523" s="3" t="n"/>
-      <c r="J523" s="3" t="n"/>
+      <c r="J523" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K523" s="3" t="inlineStr"/>
     </row>
     <row r="524">
@@ -31750,14 +32274,18 @@
         <v>0</v>
       </c>
       <c r="F524" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G524" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H524" s="3" t="n"/>
       <c r="I524" s="3" t="n"/>
-      <c r="J524" s="3" t="n"/>
+      <c r="J524" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K524" s="3" t="inlineStr"/>
     </row>
     <row r="525"/>
@@ -32851,7 +33379,7 @@
         <v>0</v>
       </c>
       <c r="F563" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G563" s="3" t="n">
         <v>0</v>
@@ -32882,7 +33410,7 @@
         <v>0</v>
       </c>
       <c r="F564" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G564" s="3" t="n">
         <v>0</v>
@@ -32913,7 +33441,7 @@
         <v>0</v>
       </c>
       <c r="F565" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G565" s="3" t="n">
         <v>0</v>
@@ -32944,7 +33472,7 @@
         <v>0</v>
       </c>
       <c r="F566" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G566" s="3" t="n">
         <v>0</v>
@@ -33050,7 +33578,7 @@
         <v>0</v>
       </c>
       <c r="F570" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G570" s="3" t="n">
         <v>0</v>
@@ -33081,7 +33609,7 @@
         <v>0</v>
       </c>
       <c r="F571" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G571" s="3" t="n">
         <v>0</v>
@@ -33112,7 +33640,7 @@
         <v>0</v>
       </c>
       <c r="F572" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G572" s="3" t="n">
         <v>0</v>
@@ -33143,7 +33671,7 @@
         <v>0</v>
       </c>
       <c r="F573" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G573" s="3" t="n">
         <v>0</v>
@@ -33249,7 +33777,7 @@
         <v>0</v>
       </c>
       <c r="F577" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G577" s="3" t="n">
         <v>0</v>
@@ -33280,7 +33808,7 @@
         <v>0</v>
       </c>
       <c r="F578" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G578" s="3" t="n">
         <v>0</v>
@@ -33311,7 +33839,7 @@
         <v>0</v>
       </c>
       <c r="F579" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G579" s="3" t="n">
         <v>0</v>
@@ -33342,7 +33870,7 @@
         <v>0</v>
       </c>
       <c r="F580" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G580" s="3" t="n">
         <v>0</v>
@@ -34443,14 +34971,18 @@
         <v>0</v>
       </c>
       <c r="F619" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G619" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H619" s="3" t="n"/>
       <c r="I619" s="3" t="n"/>
-      <c r="J619" s="3" t="n"/>
+      <c r="J619" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K619" s="3" t="inlineStr"/>
     </row>
     <row r="620">
@@ -34474,14 +35006,18 @@
         <v>0</v>
       </c>
       <c r="F620" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G620" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H620" s="3" t="n"/>
       <c r="I620" s="3" t="n"/>
-      <c r="J620" s="3" t="n"/>
+      <c r="J620" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K620" s="3" t="inlineStr"/>
     </row>
     <row r="621">
@@ -34505,14 +35041,18 @@
         <v>0</v>
       </c>
       <c r="F621" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G621" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H621" s="3" t="n"/>
       <c r="I621" s="3" t="n"/>
-      <c r="J621" s="3" t="n"/>
+      <c r="J621" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K621" s="3" t="inlineStr"/>
     </row>
     <row r="622">
@@ -34536,14 +35076,18 @@
         <v>0</v>
       </c>
       <c r="F622" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G622" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H622" s="3" t="n"/>
       <c r="I622" s="3" t="n"/>
-      <c r="J622" s="3" t="n"/>
+      <c r="J622" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K622" s="3" t="inlineStr"/>
     </row>
     <row r="623"/>
@@ -34642,14 +35186,18 @@
         <v>0</v>
       </c>
       <c r="F626" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G626" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H626" s="3" t="n"/>
       <c r="I626" s="3" t="n"/>
-      <c r="J626" s="3" t="n"/>
+      <c r="J626" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K626" s="3" t="inlineStr"/>
     </row>
     <row r="627">
@@ -34673,14 +35221,18 @@
         <v>0</v>
       </c>
       <c r="F627" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G627" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H627" s="3" t="n"/>
       <c r="I627" s="3" t="n"/>
-      <c r="J627" s="3" t="n"/>
+      <c r="J627" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K627" s="3" t="inlineStr"/>
     </row>
     <row r="628">
@@ -34704,14 +35256,18 @@
         <v>0</v>
       </c>
       <c r="F628" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G628" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H628" s="3" t="n"/>
       <c r="I628" s="3" t="n"/>
-      <c r="J628" s="3" t="n"/>
+      <c r="J628" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K628" s="3" t="inlineStr"/>
     </row>
     <row r="629">
@@ -34735,14 +35291,18 @@
         <v>0</v>
       </c>
       <c r="F629" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G629" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H629" s="3" t="n"/>
       <c r="I629" s="3" t="n"/>
-      <c r="J629" s="3" t="n"/>
+      <c r="J629" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K629" s="3" t="inlineStr"/>
     </row>
     <row r="630"/>
@@ -34841,14 +35401,18 @@
         <v>0</v>
       </c>
       <c r="F633" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G633" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H633" s="3" t="n"/>
       <c r="I633" s="3" t="n"/>
-      <c r="J633" s="3" t="n"/>
+      <c r="J633" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K633" s="3" t="inlineStr"/>
     </row>
     <row r="634">
@@ -34872,14 +35436,18 @@
         <v>0</v>
       </c>
       <c r="F634" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G634" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H634" s="3" t="n"/>
       <c r="I634" s="3" t="n"/>
-      <c r="J634" s="3" t="n"/>
+      <c r="J634" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K634" s="3" t="inlineStr"/>
     </row>
     <row r="635">
@@ -34903,14 +35471,18 @@
         <v>0</v>
       </c>
       <c r="F635" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G635" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H635" s="3" t="n"/>
       <c r="I635" s="3" t="n"/>
-      <c r="J635" s="3" t="n"/>
+      <c r="J635" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K635" s="3" t="inlineStr"/>
     </row>
     <row r="636">
@@ -34934,14 +35506,18 @@
         <v>0</v>
       </c>
       <c r="F636" s="3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G636" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H636" s="3" t="n"/>
       <c r="I636" s="3" t="n"/>
-      <c r="J636" s="3" t="n"/>
+      <c r="J636" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="K636" s="3" t="inlineStr"/>
     </row>
     <row r="637"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -19463,14 +19463,18 @@
         <v>0</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G87" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H87" s="3" t="n"/>
       <c r="I87" s="3" t="n"/>
-      <c r="J87" s="3" t="n"/>
+      <c r="J87" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K87" s="3" t="inlineStr"/>
     </row>
     <row r="88">
@@ -19494,14 +19498,18 @@
         <v>0</v>
       </c>
       <c r="F88" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G88" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H88" s="3" t="n"/>
       <c r="I88" s="3" t="n"/>
-      <c r="J88" s="3" t="n"/>
+      <c r="J88" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K88" s="3" t="inlineStr"/>
     </row>
     <row r="89">
@@ -19525,14 +19533,18 @@
         <v>0</v>
       </c>
       <c r="F89" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G89" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H89" s="3" t="n"/>
       <c r="I89" s="3" t="n"/>
-      <c r="J89" s="3" t="n"/>
+      <c r="J89" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K89" s="3" t="inlineStr"/>
     </row>
     <row r="90">
@@ -19556,14 +19568,18 @@
         <v>0</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G90" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H90" s="3" t="n"/>
       <c r="I90" s="3" t="n"/>
-      <c r="J90" s="3" t="n"/>
+      <c r="J90" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K90" s="3" t="inlineStr"/>
     </row>
     <row r="91"/>
@@ -19662,14 +19678,18 @@
         <v>0</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G94" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H94" s="3" t="n"/>
       <c r="I94" s="3" t="n"/>
-      <c r="J94" s="3" t="n"/>
+      <c r="J94" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K94" s="3" t="inlineStr"/>
     </row>
     <row r="95">
@@ -19693,14 +19713,18 @@
         <v>0</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G95" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H95" s="3" t="n"/>
       <c r="I95" s="3" t="n"/>
-      <c r="J95" s="3" t="n"/>
+      <c r="J95" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K95" s="3" t="inlineStr"/>
     </row>
     <row r="96">
@@ -19724,14 +19748,18 @@
         <v>0</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G96" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H96" s="3" t="n"/>
       <c r="I96" s="3" t="n"/>
-      <c r="J96" s="3" t="n"/>
+      <c r="J96" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K96" s="3" t="inlineStr"/>
     </row>
     <row r="97">
@@ -19755,14 +19783,18 @@
         <v>0</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G97" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H97" s="3" t="n"/>
       <c r="I97" s="3" t="n"/>
-      <c r="J97" s="3" t="n"/>
+      <c r="J97" s="3" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
       <c r="K97" s="3" t="inlineStr"/>
     </row>
     <row r="98"/>
